--- a/Page_View.xlsx
+++ b/Page_View.xlsx
@@ -40,71 +40,112 @@
     <t>https://zhidao.baidu.com/question/1547045245883159307.html</t>
   </si>
   <si>
+    <t>https://zhidao.baidu.com/question/1761173321301311228.html</t>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/630421114277259884.html?entry=qb_uhome_tag</t>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/758805618550565044.html</t>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/1645150298156616260.html</t>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/1117072557138912899.html</t>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/1930981444076453827.html</t>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/525945155779099125.html</t>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/1773086556950374780.html</t>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/525880962852583325/answer/3015394677?fr=nashare</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zhidao.baidu.com/question/1738981782546301067.html </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/495243467317256332.html?hideOtherAnswer=true&amp;newAnswer=1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/559242956293701852.html?hideOtherAnswer=true&amp;newAnswer=1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/1738918294799106827.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/1802662039532986147.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/8ec1f3d29f89?from=singlemessage</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6650643368319648259/?wxshare_count=2&amp;pbid=6652274926509180420</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hn.ifeng.com/a/20190128/7192825_0.shtml</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.weibo.com/ttarticle/p/show?id=2309404334554310670163</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https01</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https02</t>
+  </si>
+  <si>
+    <t>https03</t>
+  </si>
+  <si>
+    <t>https04</t>
+  </si>
+  <si>
+    <t>https05</t>
+  </si>
+  <si>
+    <t>https06</t>
+  </si>
+  <si>
+    <t>https07</t>
+  </si>
+  <si>
+    <t>https08</t>
+  </si>
+  <si>
+    <t>https09</t>
+  </si>
+  <si>
+    <t>https10</t>
+  </si>
+  <si>
+    <t>https11</t>
+  </si>
+  <si>
+    <t>https12</t>
+  </si>
+  <si>
     <t>在以下单元格依次输入网址</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>https://zhidao.baidu.com/question/1761173321301311228.html</t>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/630421114277259884.html?entry=qb_uhome_tag</t>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/758805618550565044.html</t>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/1645150298156616260.html</t>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/1117072557138912899.html</t>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/1930981444076453827.html</t>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/525945155779099125.html</t>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/1773086556950374780.html</t>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/525880962852583325/answer/3015394677?fr=nashare</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zhidao.baidu.com/question/1738981782546301067.html </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/495243467317256332.html?hideOtherAnswer=true&amp;newAnswer=1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/559242956293701852.html?hideOtherAnswer=true&amp;newAnswer=1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/1738918294799106827.html</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhidao.baidu.com/question/1802662039532986147.html</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jianshu.com/p/8ec1f3d29f89?from=singlemessage</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6650643368319648259/?wxshare_count=2&amp;pbid=6652274926509180420</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hn.ifeng.com/a/20190128/7192825_0.shtml</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.weibo.com/ttarticle/p/show?id=2309404334554310670163</t>
+    <t>访问次数（-1则无限次）</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -112,49 +153,8 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>访问次数（-1则无限次）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>每次访问网站个数</t>
     <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>https01</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>https02</t>
-  </si>
-  <si>
-    <t>https03</t>
-  </si>
-  <si>
-    <t>https04</t>
-  </si>
-  <si>
-    <t>https05</t>
-  </si>
-  <si>
-    <t>https06</t>
-  </si>
-  <si>
-    <t>https07</t>
-  </si>
-  <si>
-    <t>https08</t>
-  </si>
-  <si>
-    <t>https09</t>
-  </si>
-  <si>
-    <t>https10</t>
-  </si>
-  <si>
-    <t>https11</t>
-  </si>
-  <si>
-    <t>https12</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
@@ -1141,21 +1141,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>10000</v>
@@ -1169,62 +1169,62 @@
     </row>
     <row r="3" spans="1:4" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1265,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -1275,7 +1275,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -1305,187 +1305,187 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
